--- a/public/templates/mau-nhap-mon-hoc-ctdt.xlsx
+++ b/public/templates/mau-nhap-mon-hoc-ctdt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DU AN QUAN LY SINH VIEN VA KET QUA HOC TAP\Frontend\free-nextjs-admin-dashboard-main\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EF374F-E053-47BF-B8A6-F7116420481F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="12210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,21 +30,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Mã môn học</t>
-  </si>
-  <si>
-    <t>Tên môn học</t>
-  </si>
-  <si>
-    <t>Thứ tự học kỳ</t>
-  </si>
-  <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>Mã chương trình</t>
-  </si>
-  <si>
     <t>MH001</t>
   </si>
   <si>
@@ -153,12 +139,27 @@
   </si>
   <si>
     <t>Môn chuyên ngành nâng cao</t>
+  </si>
+  <si>
+    <t>Mã chương trình (Required)</t>
+  </si>
+  <si>
+    <t>Thứ tự học kỳ (Required)</t>
+  </si>
+  <si>
+    <t>Tên môn học (Required)</t>
+  </si>
+  <si>
+    <t>Mã môn học (Required)</t>
+  </si>
+  <si>
+    <t>Ghi chú (Required)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,10 +189,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -207,10 +207,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -235,15 +235,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F16" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F16" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="STT" dataDxfId="6"/>
-    <tableColumn id="2" name="Mã môn học" dataDxfId="5"/>
-    <tableColumn id="3" name="Tên môn học" dataDxfId="4"/>
-    <tableColumn id="4" name="Thứ tự học kỳ" dataDxfId="3"/>
-    <tableColumn id="5" name="Ghi chú" dataDxfId="2"/>
-    <tableColumn id="6" name="Mã chương trình" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Mã môn học (Required)" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tên môn học (Required)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Thứ tự học kỳ (Required)" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Ghi chú (Required)" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Mã chương trình (Required)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -511,341 +511,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
     <col min="5" max="5" width="32.7109375" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="D3" s="2">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
-      <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="2">
-        <v>4</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="2">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="2">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="E16" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="2">
-        <v>4</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="2">
-        <v>5</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="2">
-        <v>6</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
+      <c r="F16" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
